--- a/public/generate.xlsx
+++ b/public/generate.xlsx
@@ -365,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,270 +387,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
